--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_spécialisé_Albert-Bousquet/Centre_hospitalier_spécialisé_Albert-Bousquet.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_spécialisé_Albert-Bousquet/Centre_hospitalier_spécialisé_Albert-Bousquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_sp%C3%A9cialis%C3%A9_Albert-Bousquet</t>
+          <t>Centre_hospitalier_spécialisé_Albert-Bousquet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier spécialisé (CHS) Albert-Bousquet est un établissement public de psychiatrie et gériatrie créé en 1990 à Nouméa en Nouvelle-Calédonie. Il se situe dans la presqu'île de Nouville, mais comporte plusieurs annexes. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_sp%C3%A9cialis%C3%A9_Albert-Bousquet</t>
+          <t>Centre_hospitalier_spécialisé_Albert-Bousquet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1868: création de l'hôpital du Marais, servant à soigner les transportés et déportés au bagne. Comme l'essentiel des établissements pénitentiaires à Nouméa sont installés sur l'île Nou, actuelle Nouville, c'est donc là que l'on construit l'hôpital.
 1927: après l'abolition du bagne (en 1894 par le gouverneur Feillet), les derniers "bagnards" sont libérés et l'hôpital est cédé à la colonie, comme tous les autres bâtiments de l'administration pénitentiaire.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_sp%C3%A9cialis%C3%A9_Albert-Bousquet</t>
+          <t>Centre_hospitalier_spécialisé_Albert-Bousquet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Capacité en lits
-184 lits réparties en :
+          <t>Capacité en lits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>184 lits réparties en :
 gériatrie : 80 lits ;
-psychiatrie : 104 lits dont 60 en long séjour, 23 en pavillon administratif fermé et 21 en pavillon administratif ouvert.
-Capacité en places
-82 places dont :
+psychiatrie : 104 lits dont 60 en long séjour, 23 en pavillon administratif fermé et 21 en pavillon administratif ouvert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_spécialisé_Albert-Bousquet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_sp%C3%A9cialis%C3%A9_Albert-Bousquet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chiffres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Capacité en places</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>82 places dont :
 4 pour l'hospitalisation de nuit ;
 25 pour l'hospitalisation de jour ;
 14 en ateliers thérapeutiques ;
